--- a/Automation_vinayak/scripts/BuildObjrep.xlsx
+++ b/Automation_vinayak/scripts/BuildObjrep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="20490" windowHeight="7515"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="20490" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="BuildObjrep" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="ActionList">[1]Sheet2!$A:$A</definedName>
     <definedName name="ElementLocType">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -102,17 +102,33 @@
   </si>
   <si>
     <t>https://optima-demo.rategain.com/optima/</t>
+  </si>
+  <si>
+    <t>goldURL</t>
+  </si>
+  <si>
+    <t>gold open api</t>
+  </si>
+  <si>
+    <t>https://cibase.pexp.equant.com/cib/services/productInventory/v2/products/12-5944</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -259,29 +275,29 @@
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -289,29 +305,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -828,7 +853,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,7 +864,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -979,14 +1004,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A5:A10 C4:C10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C4:C10 A5:A10">
       <formula1>ElementLocType</formula1>
     </dataValidation>
   </dataValidations>
@@ -994,8 +1027,9 @@
     <hyperlink ref="B3" r:id="rId1" location="822"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>